--- a/APM files/131611519/Imports Results/131611519 IMPORT Stop Sell Removal_result.xlsx
+++ b/APM files/131611519/Imports Results/131611519 IMPORT Stop Sell Removal_result.xlsx
@@ -137,12 +137,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Unchanged</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated Property Info successfully; </t>
+          <t/>
         </is>
       </c>
     </row>
@@ -164,10 +164,145 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>108548296</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>108573163</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Updated</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Updated Property Info successfully; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>108512148</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Updated Property Info successfully; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>108507058</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Updated Property Info successfully; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>108507067</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Updated Property Info successfully; </t>
         </is>
